--- a/Analise Empirica/DA-analiseempirica.xlsx
+++ b/Analise Empirica/DA-analiseempirica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofonseca/Documents/FEUP/DA/Project1_DA/Analise Empirica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Importante\FEUP\2 ano\2 semestre\DA\Projeto1\Analise Empirica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85196B9F-AAC5-CD48-8D4E-B28E7CEC84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95A5D0-BD62-4E18-9C7E-7A66EF655241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{64E949C5-8416-8B4E-8387-6A2589C917DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{64E949C5-8416-8B4E-8387-6A2589C917DD}"/>
   </bookViews>
   <sheets>
     <sheet name="outputexpress" sheetId="7" r:id="rId1"/>
@@ -18,20 +18,12 @@
     <sheet name="output" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">outputexpress!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">outputexpress!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">outputexpress!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">outputexpress!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">outputexpress!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">outputexpress!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">outputexpress!$B$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">outputexpress!$B$2:$B$14</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">output!$A$1:$D$111</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">outputexpress!$A$1:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -198,7 +190,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -235,7 +227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -466,7 +458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1078839408"/>
@@ -528,7 +520,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1078837760"/>
@@ -569,7 +561,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -583,7 +575,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -645,7 +637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -864,7 +856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="634291824"/>
@@ -926,7 +918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="634290176"/>
@@ -967,7 +959,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -981,7 +973,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1043,7 +1035,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1257,7 +1249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="638081392"/>
@@ -1319,7 +1311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="638576400"/>
@@ -1360,7 +1352,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3043,16 +3035,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3968,7 +3960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9A5BAC2-0742-9548-98E8-417E80CCCDED}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9A5BAC2-0742-9548-98E8-417E80CCCDED}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -4544,13 +4536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FED89E8-05C1-A04B-8F71-E7D5C740E353}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4558,7 +4550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4566,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -4574,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -4582,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -4590,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -4598,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -4606,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -4614,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100000</v>
       </c>
@@ -4622,7 +4614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500000</v>
       </c>
@@ -4630,7 +4622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000000</v>
       </c>
@@ -4638,7 +4630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5000000</v>
       </c>
@@ -4646,7 +4638,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000000</v>
       </c>
@@ -4654,7 +4646,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50000000</v>
       </c>
@@ -4679,30 +4671,30 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4710,7 +4702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4751,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -4792,7 +4784,7 @@
         <v>329.72727272727275</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -4833,7 +4825,7 @@
         <v>342.90909090909093</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>500</v>
       </c>
@@ -4874,7 +4866,7 @@
         <v>297.27272727272725</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1000</v>
       </c>
@@ -4915,7 +4907,7 @@
         <v>340.45454545454544</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5000</v>
       </c>
@@ -4956,7 +4948,7 @@
         <v>778.63636363636363</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10000</v>
       </c>
@@ -4997,7 +4989,7 @@
         <v>1931.6363636363637</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>50000</v>
       </c>
@@ -5038,7 +5030,7 @@
         <v>32665.727272727272</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100000</v>
       </c>
@@ -5079,7 +5071,7 @@
         <v>126036.72727272728</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>500000</v>
       </c>
@@ -5120,7 +5112,7 @@
         <v>2220023</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1000000</v>
       </c>
@@ -5161,7 +5153,7 @@
         <v>8390881</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -5202,7 +5194,7 @@
         <v>1077362.709090909</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>B4</f>
         <v>10</v>
@@ -5220,7 +5212,7 @@
         <v>583.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f>C4</f>
         <v>100</v>
@@ -5230,7 +5222,7 @@
         <v>5782.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f>D4</f>
         <v>500</v>
@@ -5240,7 +5232,7 @@
         <v>28307.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>E4</f>
         <v>1000</v>
@@ -5250,7 +5242,7 @@
         <v>52685.9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f>F4</f>
         <v>5000</v>
@@ -5260,7 +5252,7 @@
         <v>259539.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f>G4</f>
         <v>10000</v>
@@ -5270,7 +5262,7 @@
         <v>499730.8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f>H4</f>
         <v>50000</v>
@@ -5280,7 +5272,7 @@
         <v>2113054.7000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>I4</f>
         <v>100000</v>
@@ -5290,7 +5282,7 @@
         <v>2226399.6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>J4</f>
         <v>500000</v>
@@ -5300,7 +5292,7 @@
         <v>2218532.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>K4</f>
         <v>1000000</v>
@@ -5310,7 +5302,7 @@
         <v>2224424.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>L4</f>
         <v>5000000</v>
@@ -5320,7 +5312,7 @@
         <v>2221948.6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
@@ -5328,9 +5320,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>A5</f>
+        <f t="shared" ref="A33:A42" si="0">A5</f>
         <v>10</v>
       </c>
       <c r="B33" s="4">
@@ -5338,9 +5330,9 @@
         <v>329.72727272727275</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B34" s="4">
@@ -5348,9 +5340,9 @@
         <v>342.90909090909093</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="B35" s="4">
@@ -5358,9 +5350,9 @@
         <v>297.27272727272725</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="B36" s="4">
@@ -5368,9 +5360,9 @@
         <v>340.45454545454544</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="B37" s="4">
@@ -5378,9 +5370,9 @@
         <v>778.63636363636363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="B38" s="4">
@@ -5388,9 +5380,9 @@
         <v>1931.6363636363637</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="B39" s="4">
@@ -5398,9 +5390,9 @@
         <v>32665.727272727272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="B40" s="4">
@@ -5408,9 +5400,9 @@
         <v>126036.72727272728</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="B41" s="4">
@@ -5418,9 +5410,9 @@
         <v>2220023</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="B42" s="4">
@@ -5442,14 +5434,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -5477,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -5491,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -5505,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -5519,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -5533,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -5547,7 +5539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50000</v>
       </c>
@@ -5561,7 +5553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100000</v>
       </c>
@@ -5575,7 +5567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500000</v>
       </c>
@@ -5589,7 +5581,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000000</v>
       </c>
@@ -5603,7 +5595,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5000000</v>
       </c>
@@ -5617,7 +5609,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5631,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
@@ -5645,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>500</v>
       </c>
@@ -5659,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -5673,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5000</v>
       </c>
@@ -5687,7 +5679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -5701,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50000</v>
       </c>
@@ -5715,7 +5707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100000</v>
       </c>
@@ -5729,7 +5721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>500000</v>
       </c>
@@ -5743,7 +5735,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000000</v>
       </c>
@@ -5757,7 +5749,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5000000</v>
       </c>
@@ -5771,7 +5763,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -5785,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>100</v>
       </c>
@@ -5799,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>500</v>
       </c>
@@ -5813,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -5827,7 +5819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5000</v>
       </c>
@@ -5841,7 +5833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10000</v>
       </c>
@@ -5855,7 +5847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50000</v>
       </c>
@@ -5869,7 +5861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>100000</v>
       </c>
@@ -5883,7 +5875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>500000</v>
       </c>
@@ -5897,7 +5889,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1000000</v>
       </c>
@@ -5911,7 +5903,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5000000</v>
       </c>
@@ -5925,7 +5917,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -5939,7 +5931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100</v>
       </c>
@@ -5953,7 +5945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>500</v>
       </c>
@@ -5967,7 +5959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1000</v>
       </c>
@@ -5981,7 +5973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5000</v>
       </c>
@@ -5995,7 +5987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10000</v>
       </c>
@@ -6009,7 +6001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50000</v>
       </c>
@@ -6023,7 +6015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100000</v>
       </c>
@@ -6037,7 +6029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>500000</v>
       </c>
@@ -6051,7 +6043,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1000000</v>
       </c>
@@ -6065,7 +6057,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5000000</v>
       </c>
@@ -6079,7 +6071,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -6093,7 +6085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>100</v>
       </c>
@@ -6107,7 +6099,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>500</v>
       </c>
@@ -6121,7 +6113,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1000</v>
       </c>
@@ -6135,7 +6127,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5000</v>
       </c>
@@ -6149,7 +6141,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10000</v>
       </c>
@@ -6163,7 +6155,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50000</v>
       </c>
@@ -6177,7 +6169,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>100000</v>
       </c>
@@ -6191,7 +6183,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>500000</v>
       </c>
@@ -6205,7 +6197,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1000000</v>
       </c>
@@ -6219,7 +6211,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5000000</v>
       </c>
@@ -6233,7 +6225,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -6247,7 +6239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>100</v>
       </c>
@@ -6261,7 +6253,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>500</v>
       </c>
@@ -6275,7 +6267,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1000</v>
       </c>
@@ -6289,7 +6281,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5000</v>
       </c>
@@ -6303,7 +6295,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10000</v>
       </c>
@@ -6317,7 +6309,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50000</v>
       </c>
@@ -6331,7 +6323,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100000</v>
       </c>
@@ -6345,7 +6337,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>500000</v>
       </c>
@@ -6359,7 +6351,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1000000</v>
       </c>
@@ -6373,7 +6365,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5000000</v>
       </c>
@@ -6387,7 +6379,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -6401,7 +6393,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>100</v>
       </c>
@@ -6415,7 +6407,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>500</v>
       </c>
@@ -6429,7 +6421,7 @@
         <v>10272</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1000</v>
       </c>
@@ -6443,7 +6435,7 @@
         <v>17129</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5000</v>
       </c>
@@ -6457,7 +6449,7 @@
         <v>48205</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10000</v>
       </c>
@@ -6471,7 +6463,7 @@
         <v>46277</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50000</v>
       </c>
@@ -6485,7 +6477,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>100000</v>
       </c>
@@ -6499,7 +6491,7 @@
         <v>47244</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>500000</v>
       </c>
@@ -6513,7 +6505,7 @@
         <v>47253</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1000000</v>
       </c>
@@ -6527,7 +6519,7 @@
         <v>47509</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5000000</v>
       </c>
@@ -6541,7 +6533,7 @@
         <v>49698</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10</v>
       </c>
@@ -6555,7 +6547,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>100</v>
       </c>
@@ -6569,7 +6561,7 @@
         <v>6444</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>500</v>
       </c>
@@ -6583,7 +6575,7 @@
         <v>22761</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1000</v>
       </c>
@@ -6597,7 +6589,7 @@
         <v>40201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5000</v>
       </c>
@@ -6611,7 +6603,7 @@
         <v>159642</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10000</v>
       </c>
@@ -6625,7 +6617,7 @@
         <v>189768</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>50000</v>
       </c>
@@ -6639,7 +6631,7 @@
         <v>194519</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100000</v>
       </c>
@@ -6653,7 +6645,7 @@
         <v>195088</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>500000</v>
       </c>
@@ -6667,7 +6659,7 @@
         <v>203724</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1000000</v>
       </c>
@@ -6681,7 +6673,7 @@
         <v>206572</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5000000</v>
       </c>
@@ -6695,7 +6687,7 @@
         <v>215813</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10</v>
       </c>
@@ -6709,7 +6701,7 @@
         <v>11228</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100</v>
       </c>
@@ -6723,7 +6715,7 @@
         <v>55143</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>500</v>
       </c>
@@ -6737,7 +6729,7 @@
         <v>185888</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1000</v>
       </c>
@@ -6751,7 +6743,7 @@
         <v>264345</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5000</v>
       </c>
@@ -6765,7 +6757,7 @@
         <v>929584</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10000</v>
       </c>
@@ -6779,7 +6771,7 @@
         <v>1560730</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>50000</v>
       </c>
@@ -6793,7 +6785,7 @@
         <v>4410674</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>100000</v>
       </c>
@@ -6807,7 +6799,7 @@
         <v>4398935</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>500000</v>
       </c>
@@ -6821,7 +6813,7 @@
         <v>4401414</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1000000</v>
       </c>
@@ -6835,7 +6827,7 @@
         <v>4399855</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5000000</v>
       </c>
@@ -6849,7 +6841,7 @@
         <v>4403544</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -6863,7 +6855,7 @@
         <v>17790</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6877,7 +6869,7 @@
         <v>108287</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>500</v>
       </c>
@@ -6891,7 +6883,7 @@
         <v>353772</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1000</v>
       </c>
@@ -6905,7 +6897,7 @@
         <v>603214</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5000</v>
       </c>
@@ -6919,7 +6911,7 @@
         <v>2173473</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10000</v>
       </c>
@@ -6933,7 +6925,7 @@
         <v>3772783</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>50000</v>
       </c>
@@ -6947,7 +6939,7 @@
         <v>14995811</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>100000</v>
       </c>
@@ -6961,7 +6953,7 @@
         <v>17969879</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>500000</v>
       </c>
@@ -6975,7 +6967,7 @@
         <v>17824527</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1000000</v>
       </c>
@@ -6989,7 +6981,7 @@
         <v>17789583</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5000000</v>
       </c>
